--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29622"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents and Settings\youth259\Dropbox\My Briefcase\WIP\網頁程式試作\KM-Election\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOUTH259\My Briefcase\GitHub\KM-Election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1523673B-1B3D-44E5-8F87-D0E9B91C87DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="519">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1450,13 +1449,204 @@
   </si>
   <si>
     <t>蔡金爵</t>
+  </si>
+  <si>
+    <t>蔡祥坤</t>
+  </si>
+  <si>
+    <t>周偉義</t>
+  </si>
+  <si>
+    <t>許程勛</t>
+  </si>
+  <si>
+    <t>楊雨川</t>
+  </si>
+  <si>
+    <t>鄭易岳</t>
+  </si>
+  <si>
+    <t>倪振國</t>
+  </si>
+  <si>
+    <t>董倫智</t>
+  </si>
+  <si>
+    <t>辛文進</t>
+  </si>
+  <si>
+    <t>黃乃善</t>
+  </si>
+  <si>
+    <t>黃延良</t>
+  </si>
+  <si>
+    <t>陳海發</t>
+  </si>
+  <si>
+    <t>戴德強</t>
+  </si>
+  <si>
+    <t>顏士強</t>
+  </si>
+  <si>
+    <t>盧志椿</t>
+  </si>
+  <si>
+    <t>張瀚龍</t>
+  </si>
+  <si>
+    <t>陳宏岳</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>陳賜發</t>
+  </si>
+  <si>
+    <t>吳嘉翔</t>
+  </si>
+  <si>
+    <t>吳有泰</t>
+  </si>
+  <si>
+    <t>陳篤疊</t>
+  </si>
+  <si>
+    <t>陳慶來</t>
+  </si>
+  <si>
+    <t>張國財</t>
+  </si>
+  <si>
+    <t>陳文傑</t>
+  </si>
+  <si>
+    <t>陳福林</t>
+  </si>
+  <si>
+    <t>陳嘉彬</t>
+  </si>
+  <si>
+    <t>黃添丁</t>
+  </si>
+  <si>
+    <t>黃成泉</t>
+  </si>
+  <si>
+    <t>黃志明</t>
+  </si>
+  <si>
+    <t>楊恭勤</t>
+  </si>
+  <si>
+    <t>周家才</t>
+  </si>
+  <si>
+    <t>何鴻樟</t>
+  </si>
+  <si>
+    <t>周水池</t>
+  </si>
+  <si>
+    <t>吳孟霖</t>
+  </si>
+  <si>
+    <t>陳晚開</t>
+  </si>
+  <si>
+    <t>陳金成</t>
+  </si>
+  <si>
+    <t>陳偃武</t>
+  </si>
+  <si>
+    <t>謝慶閣</t>
+  </si>
+  <si>
+    <t>吳宏偉</t>
+  </si>
+  <si>
+    <t>蔡懷芝</t>
+  </si>
+  <si>
+    <t>陳錦章</t>
+  </si>
+  <si>
+    <t>張志祥</t>
+  </si>
+  <si>
+    <t>黃建忠</t>
+  </si>
+  <si>
+    <t>呂永林</t>
+  </si>
+  <si>
+    <t>黃清和</t>
+  </si>
+  <si>
+    <t>許三進</t>
+  </si>
+  <si>
+    <t>許明吉</t>
+  </si>
+  <si>
+    <t>楊振嵩</t>
+  </si>
+  <si>
+    <t>楊龍傳</t>
+  </si>
+  <si>
+    <t>翁明海</t>
+  </si>
+  <si>
+    <t>翁品洋</t>
+  </si>
+  <si>
+    <t>洪天南</t>
+  </si>
+  <si>
+    <t>林建進</t>
+  </si>
+  <si>
+    <t>蔡福榮</t>
+  </si>
+  <si>
+    <t>孫先雄</t>
+  </si>
+  <si>
+    <t>林龍照</t>
+  </si>
+  <si>
+    <t>羅天升</t>
+  </si>
+  <si>
+    <t>洪安慶</t>
+  </si>
+  <si>
+    <t>方榮標</t>
+  </si>
+  <si>
+    <t>陳淑珠</t>
+  </si>
+  <si>
+    <t>莊金蓮</t>
+  </si>
+  <si>
+    <t>許敬民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1861,23 +2051,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F375"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F326" sqref="F326"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E435" sqref="E435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="4" width="10.75" style="1"/>
-    <col min="5" max="5" width="16.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="2"/>
+    <col min="1" max="1" width="10.77734375" style="2"/>
+    <col min="2" max="4" width="10.77734375" style="1"/>
+    <col min="5" max="5" width="16.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +2087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1918,7 +2108,7 @@
         <v>方駿洋.jpg</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1935,7 +2125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1952,7 +2142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1969,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1986,7 +2176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2007,7 +2197,7 @@
         <v>王秀玉.jpg</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2028,7 +2218,7 @@
         <v>王國代.jpg</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2045,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2066,7 +2256,7 @@
         <v>王碧珍.jpg</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2087,7 +2277,7 @@
         <v>石永城.jpg</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1">
+    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2108,7 +2298,7 @@
         <v>石兆緡.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1">
+    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -2129,7 +2319,7 @@
         <v>石兆瑉.jpg</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -2146,7 +2336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2167,7 +2357,7 @@
         <v>朱紀瑋.jpg</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -2188,7 +2378,7 @@
         <v>何開忠.jpg</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2209,7 +2399,7 @@
         <v>吳成典.jpg</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2226,7 +2416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2247,7 +2437,7 @@
         <v>吳有家.jpg</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2268,7 +2458,7 @@
         <v>吳伯揚.jpg</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2289,7 +2479,7 @@
         <v>吳佩雯.jpg</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2303,7 +2493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2320,7 +2510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2337,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2358,7 +2548,7 @@
         <v>吳嘉將.jpg</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2379,7 +2569,7 @@
         <v>吳福全.jpg</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2396,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2413,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2434,7 +2624,7 @@
         <v>呂錦同.jpg</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2455,7 +2645,7 @@
         <v>呂寶玉.jpg</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2472,7 +2662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2486,7 +2676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2507,7 +2697,7 @@
         <v>李正騰.jpg</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2528,7 +2718,7 @@
         <v>李成義.jpg</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2545,7 +2735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2566,7 +2756,7 @@
         <v>李志鴻.jpg</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2587,7 +2777,7 @@
         <v>李沃士.jpg</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2608,7 +2798,7 @@
         <v>李秀華.jpg</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2625,7 +2815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2646,7 +2836,7 @@
         <v>李俊龍.jpg</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2660,7 +2850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2677,7 +2867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2694,7 +2884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2715,7 +2905,7 @@
         <v>李炷烽.jpg</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2736,7 +2926,7 @@
         <v>李誠智.jpg</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2753,7 +2943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2767,7 +2957,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2788,7 +2978,7 @@
         <v>李養生.jpg</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2805,7 +2995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2822,7 +3012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -2843,7 +3033,7 @@
         <v>李錫添.jpg</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -2864,7 +3054,7 @@
         <v>李錫瑜.jpg</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -2885,7 +3075,7 @@
         <v>李應文.jpg</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -2902,7 +3092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="11" customFormat="1">
+    <row r="55" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>53</v>
       </c>
@@ -2923,7 +3113,7 @@
         <v>汪成華.jpg</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="11" customFormat="1">
+    <row r="56" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>53</v>
       </c>
@@ -2944,7 +3134,7 @@
         <v>汪承樺.jpg</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -2965,7 +3155,7 @@
         <v>汪松威.jpg</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -2982,7 +3172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>56</v>
       </c>
@@ -2999,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>57</v>
       </c>
@@ -3020,7 +3210,7 @@
         <v>周子傑.jpg</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>58</v>
       </c>
@@ -3041,7 +3231,7 @@
         <v>周水土.jpg</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>59</v>
       </c>
@@ -3058,7 +3248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>60</v>
       </c>
@@ -3075,7 +3265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>61</v>
       </c>
@@ -3089,7 +3279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>62</v>
       </c>
@@ -3110,7 +3300,7 @@
         <v>周曉芸.jpg</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>63</v>
       </c>
@@ -3131,7 +3321,7 @@
         <v>尚文凱.jpg</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>64</v>
       </c>
@@ -3148,7 +3338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>65</v>
       </c>
@@ -3165,7 +3355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>66</v>
       </c>
@@ -3186,7 +3376,7 @@
         <v>林志錦.jpg</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>67</v>
       </c>
@@ -3207,7 +3397,7 @@
         <v>林宜蘭.jpg</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>68</v>
       </c>
@@ -3228,7 +3418,7 @@
         <v>林金英.jpg</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>69</v>
       </c>
@@ -3249,7 +3439,7 @@
         <v>林金量.jpg</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>70</v>
       </c>
@@ -3270,7 +3460,7 @@
         <v>林長征.jpg</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>71</v>
       </c>
@@ -3291,7 +3481,7 @@
         <v>林長耕.jpg</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>72</v>
       </c>
@@ -3312,7 +3502,7 @@
         <v>林長鴻.jpg</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>73</v>
       </c>
@@ -3326,7 +3516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>74</v>
       </c>
@@ -3343,7 +3533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>75</v>
       </c>
@@ -3364,7 +3554,7 @@
         <v>林孫全.jpg</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>76</v>
       </c>
@@ -3381,7 +3571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>77</v>
       </c>
@@ -3395,7 +3585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>78</v>
       </c>
@@ -3409,7 +3599,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -3430,7 +3620,7 @@
         <v>林嘉森.jpg</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -3447,7 +3637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -3464,7 +3654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -3485,7 +3675,7 @@
         <v>林麗芬.jpg</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -3506,7 +3696,7 @@
         <v>洪允典.jpg</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -3527,7 +3717,7 @@
         <v>洪正.jpg</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -3548,7 +3738,7 @@
         <v>洪成發.jpg</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -3569,7 +3759,7 @@
         <v>洪志恒.jpg</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -3590,7 +3780,7 @@
         <v>洪和成.jpg</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -3611,7 +3801,7 @@
         <v>洪若珊.jpg</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -3628,7 +3818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -3645,7 +3835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -3666,7 +3856,7 @@
         <v>洪健中.jpg</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -3680,7 +3870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -3701,7 +3891,7 @@
         <v>洪雅明.jpg</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -3718,7 +3908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -3732,7 +3922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -3753,7 +3943,7 @@
         <v>洪輝榮.jpg</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>97</v>
       </c>
@@ -3774,7 +3964,7 @@
         <v>洪燕玉.jpg</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>98</v>
       </c>
@@ -3791,7 +3981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>99</v>
       </c>
@@ -3812,7 +4002,7 @@
         <v>洪鴻斌.jpg</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -3833,7 +4023,7 @@
         <v>洪麗萍.jpg</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>101</v>
       </c>
@@ -3854,7 +4044,7 @@
         <v>胡偉生.jpg</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -3875,7 +4065,7 @@
         <v>胡凱宇.jpg</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>103</v>
       </c>
@@ -3896,7 +4086,7 @@
         <v>倪于媃.jpg</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>104</v>
       </c>
@@ -3913,7 +4103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>105</v>
       </c>
@@ -3934,7 +4124,7 @@
         <v>唐惠霈.jpg</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>106</v>
       </c>
@@ -3955,7 +4145,7 @@
         <v>唐麗輝.jpg</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>107</v>
       </c>
@@ -3972,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -3993,7 +4183,7 @@
         <v>徐銀磯.jpg</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>109</v>
       </c>
@@ -4010,7 +4200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>110</v>
       </c>
@@ -4027,7 +4217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>111</v>
       </c>
@@ -4044,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>112</v>
       </c>
@@ -4065,7 +4255,7 @@
         <v>翁文奧.jpg</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>113</v>
       </c>
@@ -4079,7 +4269,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>114</v>
       </c>
@@ -4096,7 +4286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>115</v>
       </c>
@@ -4117,7 +4307,7 @@
         <v>翁沂杰.jpg</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>116</v>
       </c>
@@ -4138,7 +4328,7 @@
         <v>翁明志.jpg</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>117</v>
       </c>
@@ -4155,7 +4345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>118</v>
       </c>
@@ -4176,7 +4366,7 @@
         <v>翁明惠.jpg</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>119</v>
       </c>
@@ -4193,7 +4383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>120</v>
       </c>
@@ -4210,7 +4400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>121</v>
       </c>
@@ -4231,7 +4421,7 @@
         <v>翁裕凱.jpg</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>122</v>
       </c>
@@ -4252,7 +4442,7 @@
         <v>翁銘駿.jpg</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>123</v>
       </c>
@@ -4273,7 +4463,7 @@
         <v>馬自壯.jpg</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="11" customFormat="1">
+    <row r="127" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>124</v>
       </c>
@@ -4294,7 +4484,7 @@
         <v>高丹華.jpg</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="11" customFormat="1">
+    <row r="128" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>124</v>
       </c>
@@ -4315,7 +4505,7 @@
         <v>高丹樺.jpg</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>125</v>
       </c>
@@ -4332,7 +4522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>126</v>
       </c>
@@ -4353,7 +4543,7 @@
         <v>高絃騰.jpg</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>127</v>
       </c>
@@ -4374,7 +4564,7 @@
         <v>張中法.jpg</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>128</v>
       </c>
@@ -4391,7 +4581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>129</v>
       </c>
@@ -4408,7 +4598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>130</v>
       </c>
@@ -4429,7 +4619,7 @@
         <v>張成爵.jpg</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>131</v>
       </c>
@@ -4446,7 +4636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>132</v>
       </c>
@@ -4463,7 +4653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>133</v>
       </c>
@@ -4477,7 +4667,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>134</v>
       </c>
@@ -4498,7 +4688,7 @@
         <v>張貴富.jpg</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>135</v>
       </c>
@@ -4519,7 +4709,7 @@
         <v>張雲量.jpg</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>136</v>
       </c>
@@ -4540,7 +4730,7 @@
         <v>張雲德.jpg</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>137</v>
       </c>
@@ -4557,7 +4747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>138</v>
       </c>
@@ -4574,7 +4764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>139</v>
       </c>
@@ -4591,7 +4781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>140</v>
       </c>
@@ -4608,7 +4798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>141</v>
       </c>
@@ -4629,7 +4819,7 @@
         <v>莊旭英.jpg</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>142</v>
       </c>
@@ -4646,7 +4836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>143</v>
       </c>
@@ -4663,7 +4853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>144</v>
       </c>
@@ -4680,7 +4870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>145</v>
       </c>
@@ -4701,7 +4891,7 @@
         <v>莊嘉銘.jpg</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>146</v>
       </c>
@@ -4722,7 +4912,7 @@
         <v>許乃權.jpg</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>147</v>
       </c>
@@ -4743,7 +4933,7 @@
         <v>許大鴻.jpg</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>148</v>
       </c>
@@ -4760,7 +4950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>149</v>
       </c>
@@ -4781,7 +4971,7 @@
         <v>許丕肯.jpg</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>150</v>
       </c>
@@ -4798,7 +4988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>151</v>
       </c>
@@ -4819,7 +5009,7 @@
         <v>許玉昭.jpg</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>152</v>
       </c>
@@ -4840,7 +5030,7 @@
         <v>許志猛.jpg</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>153</v>
       </c>
@@ -4857,7 +5047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>154</v>
       </c>
@@ -4874,7 +5064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>155</v>
       </c>
@@ -4895,7 +5085,7 @@
         <v>許建中.jpg</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>156</v>
       </c>
@@ -4916,7 +5106,7 @@
         <v>許華玉.jpg</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>157</v>
       </c>
@@ -4937,7 +5127,7 @@
         <v>許慧新.jpg</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>158</v>
       </c>
@@ -4954,7 +5144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>159</v>
       </c>
@@ -4975,7 +5165,7 @@
         <v>許燕輝.jpg</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>160</v>
       </c>
@@ -4992,7 +5182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>161</v>
       </c>
@@ -5013,7 +5203,7 @@
         <v>郭永隆.jpg</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>162</v>
       </c>
@@ -5034,7 +5224,7 @@
         <v>郭金堡.jpg</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>163</v>
       </c>
@@ -5055,7 +5245,7 @@
         <v>陳子芸.jpg</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>164</v>
       </c>
@@ -5072,7 +5262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>165</v>
       </c>
@@ -5089,7 +5279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>166</v>
       </c>
@@ -5110,7 +5300,7 @@
         <v>陳天成.jpg</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>167</v>
       </c>
@@ -5131,7 +5321,7 @@
         <v>陳尤莉.jpg</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>168</v>
       </c>
@@ -5148,7 +5338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>169</v>
       </c>
@@ -5169,7 +5359,7 @@
         <v>陳文顧.jpg</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>170</v>
       </c>
@@ -5186,7 +5376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>171</v>
       </c>
@@ -5207,7 +5397,7 @@
         <v>陳水在.jpg</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>172</v>
       </c>
@@ -5224,7 +5414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>173</v>
       </c>
@@ -5241,7 +5431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>174</v>
       </c>
@@ -5258,7 +5448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>175</v>
       </c>
@@ -5275,7 +5465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>176</v>
       </c>
@@ -5296,7 +5486,7 @@
         <v>陳玉珍.jpg</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>177</v>
       </c>
@@ -5317,7 +5507,7 @@
         <v>陳仲立.jpg</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>178</v>
       </c>
@@ -5334,7 +5524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>179</v>
       </c>
@@ -5352,7 +5542,7 @@
         <v>陳成勇.jpg</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>180</v>
       </c>
@@ -5373,7 +5563,7 @@
         <v>陳成泉.jpg</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>181</v>
       </c>
@@ -5394,7 +5584,7 @@
         <v>陳孝融.jpg</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>182</v>
       </c>
@@ -5408,7 +5598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>183</v>
       </c>
@@ -5429,7 +5619,7 @@
         <v>陳志斌.jpg</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>184</v>
       </c>
@@ -5446,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>185</v>
       </c>
@@ -5463,7 +5653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>186</v>
       </c>
@@ -5480,7 +5670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>187</v>
       </c>
@@ -5501,7 +5691,7 @@
         <v>陳秀卿.jpg</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>188</v>
       </c>
@@ -5515,7 +5705,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>189</v>
       </c>
@@ -5529,7 +5719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="11" customFormat="1">
+    <row r="194" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>192</v>
       </c>
@@ -5550,7 +5740,7 @@
         <v>陳怡利.jpg</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="11" customFormat="1">
+    <row r="195" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>192</v>
       </c>
@@ -5571,7 +5761,7 @@
         <v>陳衍利.jpg</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>193</v>
       </c>
@@ -5585,7 +5775,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>194</v>
       </c>
@@ -5606,7 +5796,7 @@
         <v>陳泱瑚.jpg</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>195</v>
       </c>
@@ -5620,7 +5810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>196</v>
       </c>
@@ -5634,7 +5824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>197</v>
       </c>
@@ -5655,7 +5845,7 @@
         <v>陳威彰.jpg</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>198</v>
       </c>
@@ -5672,7 +5862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>199</v>
       </c>
@@ -5689,7 +5879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>200</v>
       </c>
@@ -5710,7 +5900,7 @@
         <v>陳苗生.jpg</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>201</v>
       </c>
@@ -5731,7 +5921,7 @@
         <v>陳家揚.jpg</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>202</v>
       </c>
@@ -5748,7 +5938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>203</v>
       </c>
@@ -5765,7 +5955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>204</v>
       </c>
@@ -5786,7 +5976,7 @@
         <v>陳淑亭.jpg</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>205</v>
       </c>
@@ -5803,7 +5993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>206</v>
       </c>
@@ -5824,7 +6014,7 @@
         <v>陳清寶.jpg</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>207</v>
       </c>
@@ -5841,7 +6031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>208</v>
       </c>
@@ -5862,7 +6052,7 @@
         <v>陳滄江.jpg</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>209</v>
       </c>
@@ -5883,7 +6073,7 @@
         <v>陳福海.jpg</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>210</v>
       </c>
@@ -5904,7 +6094,7 @@
         <v>陳德輝.jpg</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>211</v>
       </c>
@@ -5921,7 +6111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>212</v>
       </c>
@@ -5938,7 +6128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>213</v>
       </c>
@@ -5952,7 +6142,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>214</v>
       </c>
@@ -5966,7 +6156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>215</v>
       </c>
@@ -5983,7 +6173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>216</v>
       </c>
@@ -6004,7 +6194,7 @@
         <v>陳錦偉.jpg</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>217</v>
       </c>
@@ -6021,7 +6211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>218</v>
       </c>
@@ -6038,7 +6228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>219</v>
       </c>
@@ -6055,7 +6245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>220</v>
       </c>
@@ -6076,7 +6266,7 @@
         <v>程耀德.jpg</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>221</v>
       </c>
@@ -6097,7 +6287,7 @@
         <v>黃子誠.jpg</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>222</v>
       </c>
@@ -6118,7 +6308,7 @@
         <v>黃文欣.jpg</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>223</v>
       </c>
@@ -6139,7 +6329,7 @@
         <v>黃文麟.jpg</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>224</v>
       </c>
@@ -6153,7 +6343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>225</v>
       </c>
@@ -6170,7 +6360,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>226</v>
       </c>
@@ -6188,7 +6378,7 @@
         <v>黃秀珍.jpg</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>227</v>
       </c>
@@ -6205,7 +6395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>228</v>
       </c>
@@ -6222,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>229</v>
       </c>
@@ -6236,7 +6426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>230</v>
       </c>
@@ -6250,7 +6440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>231</v>
       </c>
@@ -6271,7 +6461,7 @@
         <v>黃奕焮.jpg</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>232</v>
       </c>
@@ -6288,7 +6478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>233</v>
       </c>
@@ -6302,7 +6492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>234</v>
       </c>
@@ -6319,7 +6509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>235</v>
       </c>
@@ -6340,7 +6530,7 @@
         <v>黃聰成.jpg</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>236</v>
       </c>
@@ -6357,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>237</v>
       </c>
@@ -6378,7 +6568,7 @@
         <v>楊永立.jpg</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>238</v>
       </c>
@@ -6395,7 +6585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>239</v>
       </c>
@@ -6409,7 +6599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>240</v>
       </c>
@@ -6430,7 +6620,7 @@
         <v>楊育菡.jpg</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>241</v>
       </c>
@@ -6451,7 +6641,7 @@
         <v>楊忠俊.jpg</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>242</v>
       </c>
@@ -6468,7 +6658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>243</v>
       </c>
@@ -6482,7 +6672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>244</v>
       </c>
@@ -6499,7 +6689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>245</v>
       </c>
@@ -6516,7 +6706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>246</v>
       </c>
@@ -6533,7 +6723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>247</v>
       </c>
@@ -6554,7 +6744,7 @@
         <v>楊肅元.jpg</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>248</v>
       </c>
@@ -6575,7 +6765,7 @@
         <v>楊萬山.jpg</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>249</v>
       </c>
@@ -6596,7 +6786,7 @@
         <v>楊榮祥.jpg</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>250</v>
       </c>
@@ -6617,7 +6807,7 @@
         <v>楊霈璿.jpg</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>251</v>
       </c>
@@ -6638,7 +6828,7 @@
         <v>楊應雄.jpg</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>252</v>
       </c>
@@ -6659,7 +6849,7 @@
         <v>楊鎮浯.jpg</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>253</v>
       </c>
@@ -6673,7 +6863,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>254</v>
       </c>
@@ -6690,7 +6880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>255</v>
       </c>
@@ -6711,7 +6901,7 @@
         <v>董森堡.jpg</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>256</v>
       </c>
@@ -6728,7 +6918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>257</v>
       </c>
@@ -6749,7 +6939,7 @@
         <v>廖進入.jpg</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>258</v>
       </c>
@@ -6766,7 +6956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>259</v>
       </c>
@@ -6783,7 +6973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>260</v>
       </c>
@@ -6800,7 +6990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>261</v>
       </c>
@@ -6817,7 +7007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>262</v>
       </c>
@@ -6834,7 +7024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>263</v>
       </c>
@@ -6855,7 +7045,7 @@
         <v>歐陽彥木.jpg</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>264</v>
       </c>
@@ -6876,7 +7066,7 @@
         <v>歐陽豪.jpg</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>265</v>
       </c>
@@ -6897,7 +7087,7 @@
         <v>歐陽儀雄.jpg</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>266</v>
       </c>
@@ -6918,7 +7108,7 @@
         <v>蔡乃靖.jpg</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>267</v>
       </c>
@@ -6939,7 +7129,7 @@
         <v>蔡云豪.jpg</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>268</v>
       </c>
@@ -6953,7 +7143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>269</v>
       </c>
@@ -6974,7 +7164,7 @@
         <v>蔡水游.jpg</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>270</v>
       </c>
@@ -6991,7 +7181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>271</v>
       </c>
@@ -7012,7 +7202,7 @@
         <v>蔡西湖.jpg</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>272</v>
       </c>
@@ -7033,7 +7223,7 @@
         <v>蔡其賀.jpg</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>273</v>
       </c>
@@ -7054,7 +7244,7 @@
         <v>蔡其雍.jpg</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>274</v>
       </c>
@@ -7075,7 +7265,7 @@
         <v>蔡宗儒.jpg</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>275</v>
       </c>
@@ -7092,7 +7282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>276</v>
       </c>
@@ -7113,7 +7303,7 @@
         <v>蔡建偉2.jpg</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>277</v>
       </c>
@@ -7134,7 +7324,7 @@
         <v>蔡春生.jpg</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>278</v>
       </c>
@@ -7151,7 +7341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>279</v>
       </c>
@@ -7168,7 +7358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>280</v>
       </c>
@@ -7189,7 +7379,7 @@
         <v>蔡培榮.jpg</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>281</v>
       </c>
@@ -7210,7 +7400,7 @@
         <v>蔡連進.jpg</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>282</v>
       </c>
@@ -7227,7 +7417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>283</v>
       </c>
@@ -7244,7 +7434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>284</v>
       </c>
@@ -7258,7 +7448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>285</v>
       </c>
@@ -7272,7 +7462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>286</v>
       </c>
@@ -7286,7 +7476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>287</v>
       </c>
@@ -7307,7 +7497,7 @@
         <v>蔡寶愛.jpg</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>288</v>
       </c>
@@ -7324,7 +7514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>289</v>
       </c>
@@ -7341,7 +7531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>290</v>
       </c>
@@ -7359,7 +7549,7 @@
         <v>鄭志軍.jpg</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>291</v>
       </c>
@@ -7380,7 +7570,7 @@
         <v>盧月香.jpg</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>292</v>
       </c>
@@ -7394,7 +7584,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>293</v>
       </c>
@@ -7415,7 +7605,7 @@
         <v>盧冠宇.jpg</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="11" customFormat="1">
+    <row r="297" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="13">
         <v>294</v>
       </c>
@@ -7432,7 +7622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="11" customFormat="1">
+    <row r="298" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="13">
         <v>294</v>
       </c>
@@ -7449,7 +7639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>295</v>
       </c>
@@ -7466,7 +7656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>296</v>
       </c>
@@ -7487,7 +7677,7 @@
         <v>謝東龍.jpg</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>297</v>
       </c>
@@ -7504,7 +7694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>298</v>
       </c>
@@ -7525,7 +7715,7 @@
         <v>鍾尚志.jpg</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>299</v>
       </c>
@@ -7539,7 +7729,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>300</v>
       </c>
@@ -7556,7 +7746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>301</v>
       </c>
@@ -7577,7 +7767,7 @@
         <v>蘇碧浯.jpg</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>302</v>
       </c>
@@ -7594,7 +7784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>303</v>
       </c>
@@ -7611,7 +7801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>304</v>
       </c>
@@ -7628,7 +7818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>305</v>
       </c>
@@ -7645,7 +7835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>306</v>
       </c>
@@ -7666,7 +7856,7 @@
         <v>張含麗.jpg</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>307</v>
       </c>
@@ -7683,7 +7873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>308</v>
       </c>
@@ -7704,7 +7894,7 @@
         <v>陳國琍.jpg</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>309</v>
       </c>
@@ -7721,7 +7911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>310</v>
       </c>
@@ -7738,7 +7928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>311</v>
       </c>
@@ -7755,7 +7945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>312</v>
       </c>
@@ -7772,7 +7962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>313</v>
       </c>
@@ -7789,7 +7979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>314</v>
       </c>
@@ -7806,7 +7996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>315</v>
       </c>
@@ -7827,7 +8017,7 @@
         <v>蔡建立.jpg</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>316</v>
       </c>
@@ -7844,7 +8034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>317</v>
       </c>
@@ -7861,7 +8051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>318</v>
       </c>
@@ -7882,7 +8072,7 @@
         <v>周根在.jpg</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>319</v>
       </c>
@@ -7903,7 +8093,7 @@
         <v>李琳瑯.jpg</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>320</v>
       </c>
@@ -7920,7 +8110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>321</v>
       </c>
@@ -7941,7 +8131,7 @@
         <v>方水萬.jpg</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>322</v>
       </c>
@@ -7962,7 +8152,7 @@
         <v>蔡金照.jpg</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>323</v>
       </c>
@@ -7976,7 +8166,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>324</v>
       </c>
@@ -7990,7 +8180,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>325</v>
       </c>
@@ -8004,7 +8194,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>326</v>
       </c>
@@ -8015,7 +8205,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>327</v>
       </c>
@@ -8026,7 +8216,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>328</v>
       </c>
@@ -8040,7 +8230,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>329</v>
       </c>
@@ -8051,7 +8241,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>330</v>
       </c>
@@ -8062,7 +8252,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>331</v>
       </c>
@@ -8073,7 +8263,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>332</v>
       </c>
@@ -8087,7 +8277,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>333</v>
       </c>
@@ -8101,7 +8291,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>334</v>
       </c>
@@ -8115,7 +8305,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>335</v>
       </c>
@@ -8129,7 +8319,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>336</v>
       </c>
@@ -8143,7 +8333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>337</v>
       </c>
@@ -8157,7 +8347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>338</v>
       </c>
@@ -8175,7 +8365,7 @@
         <v>翁根龍.jpg</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>339</v>
       </c>
@@ -8189,7 +8379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>340</v>
       </c>
@@ -8203,7 +8393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>341</v>
       </c>
@@ -8217,7 +8407,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>342</v>
       </c>
@@ -8231,7 +8421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>343</v>
       </c>
@@ -8245,7 +8435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>344</v>
       </c>
@@ -8259,7 +8449,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>345</v>
       </c>
@@ -8273,7 +8463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>346</v>
       </c>
@@ -8287,7 +8477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>347</v>
       </c>
@@ -8305,7 +8495,7 @@
         <v>李開陣.jpg</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>348</v>
       </c>
@@ -8319,7 +8509,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>349</v>
       </c>
@@ -8333,7 +8523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>350</v>
       </c>
@@ -8347,7 +8537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>351</v>
       </c>
@@ -8361,7 +8551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>352</v>
       </c>
@@ -8375,7 +8565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>353</v>
       </c>
@@ -8389,7 +8579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>354</v>
       </c>
@@ -8403,7 +8593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>355</v>
       </c>
@@ -8417,7 +8607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>356</v>
       </c>
@@ -8431,7 +8621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>357</v>
       </c>
@@ -8445,7 +8635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>358</v>
       </c>
@@ -8459,7 +8649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>359</v>
       </c>
@@ -8473,7 +8663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>360</v>
       </c>
@@ -8487,7 +8677,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>361</v>
       </c>
@@ -8501,7 +8691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>362</v>
       </c>
@@ -8515,7 +8705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>363</v>
       </c>
@@ -8529,7 +8719,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>364</v>
       </c>
@@ -8543,7 +8733,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>365</v>
       </c>
@@ -8557,7 +8747,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>366</v>
       </c>
@@ -8571,7 +8761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>367</v>
       </c>
@@ -8585,7 +8775,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>368</v>
       </c>
@@ -8599,7 +8789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>369</v>
       </c>
@@ -8613,7 +8803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>370</v>
       </c>
@@ -8627,7 +8817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>371</v>
       </c>
@@ -8641,8 +8831,862 @@
         <v>36</v>
       </c>
     </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>372</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>373</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>374</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>375</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>376</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>377</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>378</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>379</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>380</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>381</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>382</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>383</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>384</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>385</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>386</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>387</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>388</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>389</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>390</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>391</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>392</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="2">
+        <v>393</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>394</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="2">
+        <v>395</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="2">
+        <v>396</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>397</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="2">
+        <v>398</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="2">
+        <v>399</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
+        <v>400</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
+        <v>401</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>402</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
+        <v>403</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
+        <v>404</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
+        <v>405</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>406</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>407</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="2">
+        <v>408</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>409</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>410</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="2">
+        <v>411</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>412</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="2">
+        <v>413</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="2">
+        <v>414</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>415</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="2">
+        <v>416</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>417</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
+        <v>418</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
+        <v>419</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
+        <v>420</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
+        <v>421</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>422</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>423</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="2">
+        <v>424</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="2">
+        <v>425</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="2">
+        <v>426</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>427</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="2">
+        <v>428</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="2">
+        <v>429</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="2">
+        <v>430</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>431</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>432</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D436" s="1">
+        <v>1949</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F305">
+  <sortState ref="B2:F305">
     <sortCondition ref="B2:B305"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8655,7 +9699,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:D198 D199:D338 D339:D355 D356:D375" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:D198 D199:D338 D339:D355 D356:D375 D376:D435" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E435" sqref="E435"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F388" sqref="F388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8733,7 +8733,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>365</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>366</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>367</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>368</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>369</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>370</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>371</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>372</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>373</v>
       </c>
@@ -8858,8 +8858,12 @@
       <c r="D377" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F377" s="2" t="str">
+        <f>B377&amp;".jpg"</f>
+        <v>周偉義.jpg</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>374</v>
       </c>
@@ -8873,7 +8877,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>375</v>
       </c>
@@ -8887,7 +8891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>376</v>
       </c>
@@ -8900,8 +8904,12 @@
       <c r="D380" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F380" s="2" t="str">
+        <f>B380&amp;".jpg"</f>
+        <v>鄭易岳.jpg</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>377</v>
       </c>
@@ -8915,7 +8923,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>378</v>
       </c>
@@ -8929,7 +8937,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>379</v>
       </c>
@@ -8943,7 +8951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>380</v>
       </c>
@@ -8957,7 +8965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>381</v>
       </c>
@@ -8971,7 +8979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>382</v>
       </c>
@@ -8985,7 +8993,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>383</v>
       </c>
@@ -8999,7 +9007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>384</v>
       </c>
@@ -9012,8 +9020,12 @@
       <c r="D388" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F388" s="2" t="str">
+        <f>B388&amp;".jpg"</f>
+        <v>顏士強.jpg</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>385</v>
       </c>
@@ -9027,7 +9039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>386</v>
       </c>
@@ -9041,7 +9053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>387</v>
       </c>
@@ -9055,7 +9067,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>388</v>
       </c>
@@ -9069,7 +9081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>389</v>
       </c>
@@ -9083,7 +9095,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>390</v>
       </c>
@@ -9097,7 +9109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>391</v>
       </c>
@@ -9111,7 +9123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>392</v>
       </c>
@@ -9125,7 +9137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>393</v>
       </c>
@@ -9139,7 +9151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>394</v>
       </c>
@@ -9153,7 +9165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>395</v>
       </c>
@@ -9167,7 +9179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>396</v>
       </c>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="561">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1640,6 +1640,132 @@
   <si>
     <t>男性</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪勇銓</t>
+  </si>
+  <si>
+    <t>陳文貴</t>
+  </si>
+  <si>
+    <t>許豐榮</t>
+  </si>
+  <si>
+    <t>黃靜柯</t>
+  </si>
+  <si>
+    <t>洪俊裕</t>
+  </si>
+  <si>
+    <t>薛金萬</t>
+  </si>
+  <si>
+    <t>歐陽彥興</t>
+  </si>
+  <si>
+    <t>許清福</t>
+  </si>
+  <si>
+    <t>歐陽金中</t>
+  </si>
+  <si>
+    <t>薛祖堯</t>
+  </si>
+  <si>
+    <t>陳永棋</t>
+  </si>
+  <si>
+    <t>盧志嶢</t>
+  </si>
+  <si>
+    <t>李錫東</t>
+  </si>
+  <si>
+    <t>李成育</t>
+  </si>
+  <si>
+    <t>王志慶</t>
+  </si>
+  <si>
+    <t>楊秀清</t>
+  </si>
+  <si>
+    <t>周懋盛</t>
+  </si>
+  <si>
+    <t>許維琛</t>
+  </si>
+  <si>
+    <t>翁水河</t>
+  </si>
+  <si>
+    <t>吳志成</t>
+  </si>
+  <si>
+    <t>蔡聰謀</t>
+  </si>
+  <si>
+    <t>蔡顯明</t>
+  </si>
+  <si>
+    <t>陳贊書</t>
+  </si>
+  <si>
+    <t>陳宗連</t>
+  </si>
+  <si>
+    <t>陳宗住</t>
+  </si>
+  <si>
+    <t>陳秀嵐</t>
+  </si>
+  <si>
+    <t>呂光河</t>
+  </si>
+  <si>
+    <t>鄭榮璋</t>
+  </si>
+  <si>
+    <t>李賢慨</t>
+  </si>
+  <si>
+    <t>王美玉</t>
+  </si>
+  <si>
+    <t>吳忠烈</t>
+  </si>
+  <si>
+    <t>陳維新</t>
+  </si>
+  <si>
+    <t>吳彥洋</t>
+  </si>
+  <si>
+    <t>黃文成</t>
+  </si>
+  <si>
+    <t>翁麗治</t>
+  </si>
+  <si>
+    <t>陳金德</t>
+  </si>
+  <si>
+    <t>陳福氣</t>
+  </si>
+  <si>
+    <t>陳經養</t>
+  </si>
+  <si>
+    <t>洪南遜</t>
+  </si>
+  <si>
+    <t>林振津</t>
+  </si>
+  <si>
+    <t>方耀年</t>
+  </si>
+  <si>
+    <t>林文彩</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1756,6 +1882,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F388" sqref="F388"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F474" sqref="F474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9695,6 +9824,594 @@
       </c>
       <c r="D436" s="1">
         <v>1949</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="2">
+        <v>433</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437" s="14">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="2">
+        <v>434</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438" s="14">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="2">
+        <v>435</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439" s="14">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="2">
+        <v>436</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440" s="14">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>437</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D441" s="14">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="2">
+        <v>438</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442" s="14">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>439</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443" s="14">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="2">
+        <v>440</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D444" s="14">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="2">
+        <v>441</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445" s="14">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>442</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D446" s="14">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="2">
+        <v>443</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447" s="14">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="2">
+        <v>444</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448" s="14">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="2">
+        <v>445</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" s="14">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="2">
+        <v>446</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" s="14">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>447</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" s="14">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="2">
+        <v>448</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452" s="14">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="2">
+        <v>449</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D453" s="14">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="2">
+        <v>450</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" s="14">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="2">
+        <v>451</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" s="14">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>452</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" s="14">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>453</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" s="14">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>454</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" s="14">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>455</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" s="14">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>456</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" s="14">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>457</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" s="14">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>458</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D462" s="14">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="2">
+        <v>459</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463" s="14">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="2">
+        <v>460</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464" s="14">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="2">
+        <v>461</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" s="14">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="2">
+        <v>462</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D466" s="14">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="2">
+        <v>463</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D467" s="14">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="2">
+        <v>464</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D468" s="14">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="2">
+        <v>465</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469" s="14">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="2">
+        <v>466</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470" s="14">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="2">
+        <v>467</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D471" s="14">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="2">
+        <v>468</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472" s="14">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="2">
+        <v>469</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D473" s="14">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="2">
+        <v>470</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D474" s="14">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="2">
+        <v>471</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D475" s="14">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="2">
+        <v>472</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D476" s="14">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="2">
+        <v>473</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D477" s="14">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="2">
+        <v>474</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D478" s="14">
+        <v>1936</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="562">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -996,10 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>楊志人</t>
   </si>
   <si>
@@ -1766,6 +1762,14 @@
   </si>
   <si>
     <t>林文彩</t>
+  </si>
+  <si>
+    <t>臺北市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺灣省宜蘭縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2183,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F474" sqref="F474"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E424" sqref="E424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6707,9 +6711,6 @@
       <c r="C241" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="E241" s="4" t="s">
         <v>9</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>7</v>
@@ -6733,13 +6734,13 @@
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>142</v>
@@ -6754,7 +6755,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>7</v>
@@ -6775,7 +6776,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>7</v>
@@ -6792,7 +6793,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>7</v>
@@ -6806,7 +6807,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>7</v>
@@ -6823,7 +6824,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>7</v>
@@ -6840,7 +6841,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>19</v>
@@ -6857,7 +6858,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>7</v>
@@ -6878,7 +6879,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>7</v>
@@ -6899,7 +6900,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>7</v>
@@ -6920,13 +6921,13 @@
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>142</v>
@@ -6941,7 +6942,7 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>7</v>
@@ -6962,7 +6963,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>7</v>
@@ -6971,7 +6972,7 @@
         <v>1972</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F255" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6983,13 +6984,16 @@
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>198</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -6997,7 +7001,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>7</v>
@@ -7014,7 +7018,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>7</v>
@@ -7035,7 +7039,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>7</v>
@@ -7052,7 +7056,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>7</v>
@@ -7073,7 +7077,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>19</v>
@@ -7090,7 +7094,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>19</v>
@@ -7107,7 +7111,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>19</v>
@@ -7124,7 +7128,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>7</v>
@@ -7141,7 +7145,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>7</v>
@@ -7158,7 +7162,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>7</v>
@@ -7179,7 +7183,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>7</v>
@@ -7200,7 +7204,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>7</v>
@@ -7221,7 +7225,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>7</v>
@@ -7242,13 +7246,13 @@
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>142</v>
@@ -7263,7 +7267,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>7</v>
@@ -7277,7 +7281,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>7</v>
@@ -7298,7 +7302,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>7</v>
@@ -7315,7 +7319,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>7</v>
@@ -7336,7 +7340,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>7</v>
@@ -7357,7 +7361,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>7</v>
@@ -7378,7 +7382,7 @@
         <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>7</v>
@@ -7399,7 +7403,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>7</v>
@@ -7416,7 +7420,7 @@
         <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>7</v>
@@ -7437,7 +7441,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>7</v>
@@ -7458,7 +7462,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>7</v>
@@ -7475,7 +7479,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>7</v>
@@ -7492,13 +7496,13 @@
         <v>280</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>9</v>
@@ -7513,7 +7517,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>7</v>
@@ -7534,7 +7538,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>7</v>
@@ -7551,7 +7555,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>7</v>
@@ -7568,7 +7572,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>7</v>
@@ -7582,7 +7586,7 @@
         <v>285</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>7</v>
@@ -7596,7 +7600,7 @@
         <v>286</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>19</v>
@@ -7610,7 +7614,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>19</v>
@@ -7631,7 +7635,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>19</v>
@@ -7648,7 +7652,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>7</v>
@@ -7665,7 +7669,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>264</v>
@@ -7683,7 +7687,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>19</v>
@@ -7692,7 +7696,7 @@
         <v>41</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F294" s="2" t="str">
         <f>B294&amp;".jpg"</f>
@@ -7704,13 +7708,13 @@
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -7718,7 +7722,7 @@
         <v>293</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>7</v>
@@ -7739,7 +7743,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C297" s="9" t="s">
         <v>19</v>
@@ -7756,7 +7760,7 @@
         <v>294</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>19</v>
@@ -7773,7 +7777,7 @@
         <v>295</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>7</v>
@@ -7790,7 +7794,7 @@
         <v>296</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>7</v>
@@ -7811,7 +7815,7 @@
         <v>297</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>7</v>
@@ -7828,7 +7832,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>7</v>
@@ -7849,13 +7853,13 @@
         <v>299</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -7863,7 +7867,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>7</v>
@@ -7880,7 +7884,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>19</v>
@@ -7901,7 +7905,7 @@
         <v>302</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>7</v>
@@ -7918,7 +7922,7 @@
         <v>303</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>19</v>
@@ -7935,7 +7939,7 @@
         <v>304</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>19</v>
@@ -7952,7 +7956,7 @@
         <v>305</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>7</v>
@@ -7969,7 +7973,7 @@
         <v>306</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>19</v>
@@ -7990,7 +7994,7 @@
         <v>307</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>19</v>
@@ -8007,7 +8011,7 @@
         <v>308</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>7</v>
@@ -8028,7 +8032,7 @@
         <v>309</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>7</v>
@@ -8045,7 +8049,7 @@
         <v>310</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>7</v>
@@ -8062,7 +8066,7 @@
         <v>311</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>7</v>
@@ -8079,7 +8083,7 @@
         <v>312</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>19</v>
@@ -8096,7 +8100,7 @@
         <v>313</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>7</v>
@@ -8113,7 +8117,7 @@
         <v>314</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>7</v>
@@ -8130,7 +8134,7 @@
         <v>315</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>7</v>
@@ -8151,7 +8155,7 @@
         <v>316</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>7</v>
@@ -8168,7 +8172,7 @@
         <v>317</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>7</v>
@@ -8185,7 +8189,7 @@
         <v>318</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>7</v>
@@ -8206,7 +8210,7 @@
         <v>319</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>7</v>
@@ -8227,7 +8231,7 @@
         <v>320</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>7</v>
@@ -8244,7 +8248,7 @@
         <v>321</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>7</v>
@@ -8265,7 +8269,7 @@
         <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>7</v>
@@ -8286,7 +8290,7 @@
         <v>323</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>264</v>
@@ -8300,7 +8304,7 @@
         <v>324</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>264</v>
@@ -8314,10 +8318,10 @@
         <v>325</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D329" s="1">
         <v>1958</v>
@@ -8328,7 +8332,7 @@
         <v>326</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>264</v>
@@ -8339,10 +8343,10 @@
         <v>327</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -8350,13 +8354,16 @@
         <v>328</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D332" s="1">
         <v>1958</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -8364,7 +8371,7 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>264</v>
@@ -8375,7 +8382,7 @@
         <v>330</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>264</v>
@@ -8386,7 +8393,7 @@
         <v>331</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>264</v>
@@ -8397,7 +8404,7 @@
         <v>332</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>264</v>
@@ -8411,7 +8418,7 @@
         <v>333</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>264</v>
@@ -8425,10 +8432,10 @@
         <v>334</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D338" s="1">
         <v>1961</v>
@@ -8439,13 +8446,16 @@
         <v>335</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -8453,7 +8463,7 @@
         <v>336</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>7</v>
@@ -8467,7 +8477,7 @@
         <v>337</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>19</v>
@@ -8481,7 +8491,7 @@
         <v>338</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>7</v>
@@ -8499,7 +8509,7 @@
         <v>339</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>19</v>
@@ -8513,7 +8523,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>7</v>
@@ -8527,7 +8537,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>7</v>
@@ -8541,13 +8551,16 @@
         <v>342</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8555,13 +8568,16 @@
         <v>343</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -8569,13 +8585,13 @@
         <v>344</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -8583,13 +8599,16 @@
         <v>345</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -8597,7 +8616,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>7</v>
@@ -8611,13 +8630,16 @@
         <v>347</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F351" s="2" t="str">
         <f>B351&amp;".jpg"</f>
@@ -8629,7 +8651,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>19</v>
@@ -8638,12 +8660,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>349</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>7</v>
@@ -8651,13 +8673,16 @@
       <c r="D353" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E353" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>350</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>19</v>
@@ -8666,12 +8691,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>351</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>7</v>
@@ -8680,12 +8705,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>352</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>7</v>
@@ -8694,12 +8719,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>353</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>7</v>
@@ -8707,13 +8732,16 @@
       <c r="D357" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E357" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>354</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>7</v>
@@ -8722,12 +8750,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>355</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>7</v>
@@ -8736,12 +8764,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>356</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>19</v>
@@ -8750,12 +8778,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>357</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>7</v>
@@ -8764,12 +8792,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>358</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>7</v>
@@ -8778,12 +8806,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>359</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>7</v>
@@ -8792,26 +8820,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>360</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>361</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>7</v>
@@ -8820,12 +8848,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>362</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>19</v>
@@ -8834,12 +8862,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>363</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>19</v>
@@ -8848,12 +8876,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>364</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>19</v>
@@ -8867,7 +8895,7 @@
         <v>365</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>19</v>
@@ -8881,7 +8909,7 @@
         <v>366</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>7</v>
@@ -8895,7 +8923,7 @@
         <v>367</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>7</v>
@@ -8909,7 +8937,7 @@
         <v>368</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>7</v>
@@ -8923,13 +8951,16 @@
         <v>369</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -8937,7 +8968,7 @@
         <v>370</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>7</v>
@@ -8951,7 +8982,7 @@
         <v>371</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>7</v>
@@ -8965,7 +8996,7 @@
         <v>372</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>7</v>
@@ -8979,7 +9010,7 @@
         <v>373</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>7</v>
@@ -8997,13 +9028,13 @@
         <v>374</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -9011,13 +9042,16 @@
         <v>375</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -9025,13 +9059,16 @@
         <v>376</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E380" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F380" s="2" t="str">
         <f>B380&amp;".jpg"</f>
@@ -9043,7 +9080,7 @@
         <v>377</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>7</v>
@@ -9057,7 +9094,7 @@
         <v>378</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>7</v>
@@ -9071,13 +9108,16 @@
         <v>379</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="E383" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -9085,7 +9125,7 @@
         <v>380</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>7</v>
@@ -9099,13 +9139,16 @@
         <v>381</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>164</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -9113,7 +9156,7 @@
         <v>382</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>7</v>
@@ -9127,13 +9170,16 @@
         <v>383</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -9141,13 +9187,16 @@
         <v>384</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F388" s="2" t="str">
         <f>B388&amp;".jpg"</f>
@@ -9159,7 +9208,7 @@
         <v>385</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>7</v>
@@ -9173,13 +9222,16 @@
         <v>386</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -9187,13 +9239,16 @@
         <v>387</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>472</v>
+      <c r="E391" s="4" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -9201,13 +9256,16 @@
         <v>388</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E392" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -9215,13 +9273,16 @@
         <v>389</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>161</v>
+      </c>
+      <c r="E393" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -9229,13 +9290,16 @@
         <v>390</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,13 +9307,16 @@
         <v>391</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -9257,13 +9324,16 @@
         <v>392</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -9271,13 +9341,16 @@
         <v>393</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="E397" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -9285,13 +9358,16 @@
         <v>394</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="E398" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -9299,13 +9375,16 @@
         <v>395</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -9313,7 +9392,7 @@
         <v>396</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>7</v>
@@ -9321,13 +9400,16 @@
       <c r="D400" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E400" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>397</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>7</v>
@@ -9335,13 +9417,16 @@
       <c r="D401" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E401" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>398</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>7</v>
@@ -9349,13 +9434,16 @@
       <c r="D402" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E402" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>399</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>7</v>
@@ -9364,12 +9452,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>400</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>7</v>
@@ -9378,12 +9466,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>401</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>7</v>
@@ -9392,12 +9480,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>402</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>7</v>
@@ -9406,12 +9494,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>7</v>
@@ -9420,12 +9508,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>404</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>7</v>
@@ -9433,13 +9521,16 @@
       <c r="D408" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E408" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>405</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>7</v>
@@ -9447,13 +9538,16 @@
       <c r="D409" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E409" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>406</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>7</v>
@@ -9461,13 +9555,16 @@
       <c r="D410" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E410" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>407</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>7</v>
@@ -9475,13 +9572,16 @@
       <c r="D411" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E411" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>408</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>7</v>
@@ -9489,13 +9589,16 @@
       <c r="D412" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E412" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>409</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>7</v>
@@ -9503,13 +9606,16 @@
       <c r="D413" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E413" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>410</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>7</v>
@@ -9517,13 +9623,16 @@
       <c r="D414" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E414" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>411</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>7</v>
@@ -9531,13 +9640,16 @@
       <c r="D415" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E415" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>412</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>7</v>
@@ -9545,13 +9657,16 @@
       <c r="D416" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E416" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>413</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>7</v>
@@ -9559,13 +9674,16 @@
       <c r="D417" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E417" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>414</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>7</v>
@@ -9573,13 +9691,16 @@
       <c r="D418" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E418" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>415</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>7</v>
@@ -9587,13 +9708,16 @@
       <c r="D419" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E419" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>416</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>7</v>
@@ -9601,13 +9725,16 @@
       <c r="D420" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E420" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>417</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>7</v>
@@ -9615,13 +9742,16 @@
       <c r="D421" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E421" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>418</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>7</v>
@@ -9629,13 +9759,16 @@
       <c r="D422" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E422" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>419</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>7</v>
@@ -9643,13 +9776,16 @@
       <c r="D423" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E423" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>420</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>7</v>
@@ -9657,13 +9793,16 @@
       <c r="D424" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E424" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>421</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>7</v>
@@ -9671,13 +9810,16 @@
       <c r="D425" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E425" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>422</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>7</v>
@@ -9685,13 +9827,16 @@
       <c r="D426" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E426" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>423</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>7</v>
@@ -9699,13 +9844,16 @@
       <c r="D427" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E427" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>424</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>7</v>
@@ -9713,13 +9861,16 @@
       <c r="D428" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E428" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>425</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>7</v>
@@ -9727,13 +9878,16 @@
       <c r="D429" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E429" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>426</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>7</v>
@@ -9741,13 +9895,16 @@
       <c r="D430" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E430" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>427</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>7</v>
@@ -9755,13 +9912,16 @@
       <c r="D431" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E431" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>428</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>7</v>
@@ -9769,13 +9929,16 @@
       <c r="D432" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E432" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>429</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>7</v>
@@ -9783,13 +9946,16 @@
       <c r="D433" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E433" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>430</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>19</v>
@@ -9797,13 +9963,16 @@
       <c r="D434" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E434" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>431</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>19</v>
@@ -9811,27 +9980,33 @@
       <c r="D435" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E435" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>432</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="D436" s="1">
         <v>1949</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E436" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>433</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>7</v>
@@ -9839,13 +10014,16 @@
       <c r="D437" s="14">
         <v>1964</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E437" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>434</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>7</v>
@@ -9853,13 +10031,16 @@
       <c r="D438" s="14">
         <v>1976</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E438" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>435</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>7</v>
@@ -9867,13 +10048,16 @@
       <c r="D439" s="14">
         <v>1963</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E439" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>436</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>7</v>
@@ -9881,13 +10065,16 @@
       <c r="D440" s="14">
         <v>1953</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E440" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>437</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>7</v>
@@ -9895,13 +10082,16 @@
       <c r="D441" s="14">
         <v>1975</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E441" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>438</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>7</v>
@@ -9909,13 +10099,16 @@
       <c r="D442" s="14">
         <v>1954</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E442" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>439</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>7</v>
@@ -9923,13 +10116,16 @@
       <c r="D443" s="14">
         <v>1949</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E443" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>440</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>7</v>
@@ -9937,13 +10133,16 @@
       <c r="D444" s="14">
         <v>1961</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E444" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>441</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>7</v>
@@ -9951,13 +10150,16 @@
       <c r="D445" s="14">
         <v>1967</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E445" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>442</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>7</v>
@@ -9965,13 +10167,16 @@
       <c r="D446" s="14">
         <v>1966</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E446" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>443</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>7</v>
@@ -9979,13 +10184,16 @@
       <c r="D447" s="14">
         <v>1966</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E447" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>444</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>7</v>
@@ -9993,13 +10201,16 @@
       <c r="D448" s="14">
         <v>1949</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E448" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>445</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>7</v>
@@ -10007,13 +10218,16 @@
       <c r="D449" s="14">
         <v>1964</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E449" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>446</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>7</v>
@@ -10021,13 +10235,16 @@
       <c r="D450" s="14">
         <v>1964</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E450" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>447</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>7</v>
@@ -10035,13 +10252,16 @@
       <c r="D451" s="14">
         <v>1971</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E451" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>448</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>7</v>
@@ -10049,13 +10269,16 @@
       <c r="D452" s="14">
         <v>1969</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E452" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>449</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>7</v>
@@ -10063,13 +10286,16 @@
       <c r="D453" s="14">
         <v>1961</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E453" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>450</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>7</v>
@@ -10077,13 +10303,16 @@
       <c r="D454" s="14">
         <v>1953</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E454" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>451</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>7</v>
@@ -10091,13 +10320,16 @@
       <c r="D455" s="14">
         <v>1946</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E455" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>452</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>7</v>
@@ -10105,13 +10337,16 @@
       <c r="D456" s="14">
         <v>1960</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E456" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>453</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>7</v>
@@ -10119,13 +10354,16 @@
       <c r="D457" s="14">
         <v>1966</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E457" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>454</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>7</v>
@@ -10133,13 +10371,16 @@
       <c r="D458" s="14">
         <v>1942</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E458" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>455</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>7</v>
@@ -10147,13 +10388,16 @@
       <c r="D459" s="14">
         <v>1964</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E459" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>456</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>7</v>
@@ -10161,13 +10405,16 @@
       <c r="D460" s="14">
         <v>1959</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E460" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>457</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>7</v>
@@ -10175,13 +10422,16 @@
       <c r="D461" s="14">
         <v>1962</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E461" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>458</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>19</v>
@@ -10189,13 +10439,16 @@
       <c r="D462" s="14">
         <v>1957</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E462" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>459</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>7</v>
@@ -10203,13 +10456,16 @@
       <c r="D463" s="14">
         <v>1964</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E463" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>460</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>7</v>
@@ -10217,13 +10473,16 @@
       <c r="D464" s="14">
         <v>1980</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E464" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>461</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>7</v>
@@ -10231,13 +10490,14 @@
       <c r="D465" s="14">
         <v>1959</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>462</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>19</v>
@@ -10245,13 +10505,14 @@
       <c r="D466" s="14">
         <v>1956</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E466" s="2"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>463</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>7</v>
@@ -10259,13 +10520,14 @@
       <c r="D467" s="14">
         <v>1978</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E467" s="2"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>464</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>7</v>
@@ -10273,13 +10535,14 @@
       <c r="D468" s="14">
         <v>1966</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E468" s="2"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>465</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>7</v>
@@ -10287,13 +10550,14 @@
       <c r="D469" s="14">
         <v>1965</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>466</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>7</v>
@@ -10301,13 +10565,14 @@
       <c r="D470" s="14">
         <v>1970</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E470" s="2"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>467</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>19</v>
@@ -10315,13 +10580,14 @@
       <c r="D471" s="14">
         <v>1966</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E471" s="2"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>468</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>7</v>
@@ -10329,13 +10595,14 @@
       <c r="D472" s="14">
         <v>1960</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E472" s="2"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>469</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>7</v>
@@ -10343,13 +10610,14 @@
       <c r="D473" s="14">
         <v>1945</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E473" s="2"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>470</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>7</v>
@@ -10357,13 +10625,14 @@
       <c r="D474" s="14">
         <v>1962</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E474" s="2"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>471</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>7</v>
@@ -10371,13 +10640,16 @@
       <c r="D475" s="14">
         <v>1962</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E475" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>472</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>7</v>
@@ -10385,13 +10657,16 @@
       <c r="D476" s="14">
         <v>1960</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E476" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>473</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>7</v>
@@ -10399,13 +10674,16 @@
       <c r="D477" s="14">
         <v>1952</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E477" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>474</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>7</v>
@@ -10413,6 +10691,7 @@
       <c r="D478" s="14">
         <v>1936</v>
       </c>
+      <c r="E478" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B2:F305">
@@ -10428,7 +10707,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:D198 D199:D338 D339:D355 D356:D375 D376:D435" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:D198 D199:D240 D339:D355 D356:D375 D376:D435 D242:D338" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="584">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1770,6 +1770,72 @@
   <si>
     <t>臺灣省宜蘭縣</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭永水</t>
+  </si>
+  <si>
+    <t>董華安</t>
+  </si>
+  <si>
+    <t>陳承吉</t>
+  </si>
+  <si>
+    <t>黃國民</t>
+  </si>
+  <si>
+    <t>歐贊隊</t>
+  </si>
+  <si>
+    <t>李朝金</t>
+  </si>
+  <si>
+    <t>陸楊綉娟</t>
+  </si>
+  <si>
+    <t>蔡輝進</t>
+  </si>
+  <si>
+    <t>楊朝基</t>
+  </si>
+  <si>
+    <t>許績用</t>
+  </si>
+  <si>
+    <t>陳和國</t>
+  </si>
+  <si>
+    <t>謝清福</t>
+  </si>
+  <si>
+    <t>蔡欽水</t>
+  </si>
+  <si>
+    <t>呂長政</t>
+  </si>
+  <si>
+    <t>呂玉華</t>
+  </si>
+  <si>
+    <t>吳明雄</t>
+  </si>
+  <si>
+    <t>黃木林</t>
+  </si>
+  <si>
+    <t>林文傳</t>
+  </si>
+  <si>
+    <t>林照人</t>
+  </si>
+  <si>
+    <t>林開興</t>
+  </si>
+  <si>
+    <t>高金鳳</t>
+  </si>
+  <si>
+    <t>莊金輝</t>
   </si>
 </sst>
 </file>
@@ -2185,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F478"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E424" sqref="E424"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B484" sqref="B484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10692,6 +10758,314 @@
         <v>1936</v>
       </c>
       <c r="E478" s="2"/>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="2">
+        <v>475</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D479" s="14">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="2">
+        <v>476</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D480" s="14">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="2">
+        <v>477</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D481" s="14">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="2">
+        <v>478</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D482" s="14">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="2">
+        <v>479</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D483" s="14">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="2">
+        <v>480</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D484" s="14">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="2">
+        <v>481</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D485" s="14">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="2">
+        <v>482</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D486" s="14">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="2">
+        <v>483</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D487" s="14">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="2">
+        <v>484</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D488" s="14">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="2">
+        <v>485</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D489" s="14">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="2">
+        <v>486</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D490" s="14">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="2">
+        <v>487</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D491" s="14">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="2">
+        <v>488</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D492" s="14">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="2">
+        <v>489</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D493" s="14">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="2">
+        <v>490</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D494" s="14">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="2">
+        <v>491</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D495" s="14">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="2">
+        <v>492</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496" s="14">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="2">
+        <v>493</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D497" s="14">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="2">
+        <v>494</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D498" s="14">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="2">
+        <v>495</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D499" s="14">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="2">
+        <v>496</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D500" s="14">
+        <v>1950</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:F305">

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="564">
   <si>
     <t>ID</t>
   </si>
@@ -1689,6 +1689,38 @@
   </si>
   <si>
     <t>高寶治</t>
+  </si>
+  <si>
+    <t>蔡福回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳長源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪長成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳金贊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李安心</t>
+  </si>
+  <si>
+    <t>林榮堯</t>
+  </si>
+  <si>
+    <t>蔡福明</t>
+  </si>
+  <si>
+    <t>洪德居</t>
   </si>
 </sst>
 </file>
@@ -2023,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F953"/>
+  <dimension ref="A1:F947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="B537" sqref="B537"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="B545" sqref="B545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -11868,66 +11900,130 @@
       <c r="F536" s="3"/>
     </row>
     <row r="537" spans="1:6">
-      <c r="A537" s="3"/>
-      <c r="B537" s="4"/>
-      <c r="C537" s="4"/>
-      <c r="D537" s="4"/>
+      <c r="A537" s="3">
+        <v>533</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D537" s="4">
+        <v>1965</v>
+      </c>
       <c r="E537" s="5"/>
       <c r="F537" s="3"/>
     </row>
     <row r="538" spans="1:6">
-      <c r="A538" s="3"/>
-      <c r="B538" s="4"/>
-      <c r="C538" s="4"/>
-      <c r="D538" s="4"/>
+      <c r="A538" s="3">
+        <v>534</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D538" s="4">
+        <v>1973</v>
+      </c>
       <c r="E538" s="5"/>
       <c r="F538" s="3"/>
     </row>
     <row r="539" spans="1:6">
-      <c r="A539" s="3"/>
-      <c r="B539" s="4"/>
-      <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
+      <c r="A539" s="3">
+        <v>535</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D539" s="4">
+        <v>1962</v>
+      </c>
       <c r="E539" s="5"/>
       <c r="F539" s="3"/>
     </row>
     <row r="540" spans="1:6">
-      <c r="A540" s="3"/>
-      <c r="B540" s="4"/>
-      <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
+      <c r="A540" s="3">
+        <v>536</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D540" s="4">
+        <v>1936</v>
+      </c>
       <c r="E540" s="5"/>
       <c r="F540" s="3"/>
     </row>
     <row r="541" spans="1:6">
-      <c r="A541" s="3"/>
-      <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
+      <c r="A541" s="3">
+        <v>537</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D541" s="4">
+        <v>1947</v>
+      </c>
       <c r="E541" s="5"/>
       <c r="F541" s="3"/>
     </row>
     <row r="542" spans="1:6">
-      <c r="A542" s="3"/>
-      <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
+      <c r="A542" s="3">
+        <v>538</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D542" s="4">
+        <v>1960</v>
+      </c>
       <c r="E542" s="5"/>
       <c r="F542" s="3"/>
     </row>
     <row r="543" spans="1:6">
-      <c r="A543" s="3"/>
-      <c r="B543" s="4"/>
-      <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
+      <c r="A543" s="3">
+        <v>539</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D543" s="4">
+        <v>1951</v>
+      </c>
       <c r="E543" s="5"/>
       <c r="F543" s="3"/>
     </row>
     <row r="544" spans="1:6">
-      <c r="A544" s="3"/>
-      <c r="B544" s="4"/>
-      <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
+      <c r="A544" s="3">
+        <v>540</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D544" s="4">
+        <v>1964</v>
+      </c>
       <c r="E544" s="5"/>
       <c r="F544" s="3"/>
     </row>
@@ -15154,54 +15250,6 @@
       <c r="D947" s="4"/>
       <c r="E947" s="5"/>
       <c r="F947" s="3"/>
-    </row>
-    <row r="948" spans="1:6">
-      <c r="A948" s="3"/>
-      <c r="B948" s="4"/>
-      <c r="C948" s="4"/>
-      <c r="D948" s="4"/>
-      <c r="E948" s="5"/>
-      <c r="F948" s="3"/>
-    </row>
-    <row r="949" spans="1:6">
-      <c r="A949" s="3"/>
-      <c r="B949" s="4"/>
-      <c r="C949" s="4"/>
-      <c r="D949" s="4"/>
-      <c r="E949" s="5"/>
-      <c r="F949" s="3"/>
-    </row>
-    <row r="950" spans="1:6">
-      <c r="A950" s="3"/>
-      <c r="B950" s="4"/>
-      <c r="C950" s="4"/>
-      <c r="D950" s="4"/>
-      <c r="E950" s="5"/>
-      <c r="F950" s="3"/>
-    </row>
-    <row r="951" spans="1:6">
-      <c r="A951" s="3"/>
-      <c r="B951" s="4"/>
-      <c r="C951" s="4"/>
-      <c r="D951" s="4"/>
-      <c r="E951" s="5"/>
-      <c r="F951" s="3"/>
-    </row>
-    <row r="952" spans="1:6">
-      <c r="A952" s="3"/>
-      <c r="B952" s="4"/>
-      <c r="C952" s="4"/>
-      <c r="D952" s="4"/>
-      <c r="E952" s="5"/>
-      <c r="F952" s="3"/>
-    </row>
-    <row r="953" spans="1:6">
-      <c r="A953" s="3"/>
-      <c r="B953" s="4"/>
-      <c r="C953" s="4"/>
-      <c r="D953" s="4"/>
-      <c r="E953" s="5"/>
-      <c r="F953" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="564">
   <si>
     <t>ID</t>
   </si>
@@ -2057,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="B545" sqref="B545"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="G369" sqref="G369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -9154,7 +9154,10 @@
         <v>1963</v>
       </c>
       <c r="E375" s="5"/>
-      <c r="F375" s="3"/>
+      <c r="F375" s="3" t="str">
+        <f>B375&amp;".jpg"</f>
+        <v>蔡金爵.jpg</v>
+      </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="3">
@@ -11960,8 +11963,13 @@
       <c r="D540" s="4">
         <v>1936</v>
       </c>
-      <c r="E540" s="5"/>
-      <c r="F540" s="3"/>
+      <c r="E540" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F540" s="3" t="str">
+        <f>B540&amp;".jpg"</f>
+        <v>吳金贊.jpg</v>
+      </c>
     </row>
     <row r="541" spans="1:6">
       <c r="A541" s="3">

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="566">
   <si>
     <t>ID</t>
   </si>
@@ -1721,6 +1721,14 @@
   </si>
   <si>
     <t>洪德居</t>
+  </si>
+  <si>
+    <t>蔡金珊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2057,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="G369" sqref="G369"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="E545" sqref="E545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -12036,10 +12044,18 @@
       <c r="F544" s="3"/>
     </row>
     <row r="545" spans="1:6">
-      <c r="A545" s="3"/>
-      <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
+      <c r="A545" s="3">
+        <v>540</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C545" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D545" s="4">
+        <v>1950</v>
+      </c>
       <c r="E545" s="5"/>
       <c r="F545" s="3"/>
     </row>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="570">
   <si>
     <t>ID</t>
   </si>
@@ -1728,6 +1728,22 @@
   </si>
   <si>
     <t>男性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳有祥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊素雲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2065,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="E545" sqref="E545"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="A548" sqref="A548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -12060,18 +12076,34 @@
       <c r="F545" s="3"/>
     </row>
     <row r="546" spans="1:6">
-      <c r="A546" s="3"/>
-      <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
+      <c r="A546" s="3">
+        <v>541</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D546" s="4">
+        <v>1956</v>
+      </c>
       <c r="E546" s="5"/>
       <c r="F546" s="3"/>
     </row>
     <row r="547" spans="1:6">
-      <c r="A547" s="3"/>
-      <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
+      <c r="A547" s="3">
+        <v>542</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C547" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D547" s="4">
+        <v>1963</v>
+      </c>
       <c r="E547" s="5"/>
       <c r="F547" s="3"/>
     </row>
